--- a/src/attributions/attributions_ig_traj_495.xlsx
+++ b/src/attributions/attributions_ig_traj_495.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1318640762770969</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.001794469622091679</v>
+        <v>-0.1135635860823204</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2627613492971648</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0394744317658914</v>
+        <v>0.01347081606661644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1458408090034268</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00455822420442015</v>
+        <v>-0.02265144341177558</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.2387385148544099</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01385246904799705</v>
+        <v>0.005719642659729415</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1055,22 +1055,22 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04914833630691621</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.004736011610217637</v>
+        <v>-0.1083997172967939</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.01236818953665744</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02940114650875991</v>
+        <v>-0.04361436512658663</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1085,76 +1085,76 @@
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04137227100620947</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.03260740087940989</v>
+        <v>-0.07833672262594704</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.01171560210610239</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02240050999120912</v>
+        <v>0.009298368432744866</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03442150953977719</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.01451292557499371</v>
+        <v>-0.04486821589741342</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.03216264382969419</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.04234678630503067</v>
+        <v>0.07941566810152632</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.05709361637212879</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.01233835997425371</v>
+        <v>-0.1587414854446407</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.09496770416775556</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.1009489303046281</v>
+        <v>0.01841125536205374</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1163,22 +1163,22 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06196377182178314</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.005087040860927724</v>
+        <v>-0.02837554453630514</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.09823586953220728</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.01896948498696847</v>
+        <v>0.03785559630282209</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,25 +1187,25 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.02565654481608146</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.005415758980166434</v>
+        <v>0.03083793472071189</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.03925015716482984</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.02418144178636351</v>
+        <v>-0.09536144570456224</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,52 +1220,52 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04956461184710623</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.01286746618826686</v>
+        <v>-0.03912296556476491</v>
       </c>
       <c r="BW2" t="n">
         <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.02213707306184231</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.03415041694862633</v>
+        <v>-0.01990996932938572</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01489160704363601</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.001493999703252726</v>
+        <v>0.03053216949848069</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.04036857196174517</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0269320868852383</v>
+        <v>0.01834765950112722</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.002663506584744266</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01534986283719971</v>
+        <v>-0.01776595600963329</v>
       </c>
       <c r="CO2" t="n">
         <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0.03678342491833134</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.03598403398735564</v>
+        <v>0.04830583973100779</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.01048397885725716</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.006559109162973775</v>
+        <v>0.04587107387803037</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.04331952876540518</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02694998169643892</v>
+        <v>0.009187832693228098</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,49 +1328,49 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.01401186236497568</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.03505199368027936</v>
+        <v>0.03492830179516355</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.01594690992218723</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.03028702291776724</v>
+        <v>0.03940935874805038</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.02048386112784101</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.02580781243051414</v>
+        <v>-0.03807029712088379</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.04801233879067612</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.03052486196029341</v>
+        <v>-0.02779739109799752</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.001473055787849159</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.008562810924145165</v>
+        <v>-0.07018650623358692</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.01311686632312821</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.01429334740488464</v>
+        <v>-0.03947747523715595</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1409,19 +1409,19 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.05010875834874184</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.005262385373555827</v>
+        <v>0.04817555933695059</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.0908645092385791</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.001388434536058729</v>
+        <v>-0.03158698639538209</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,52 +1436,52 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.01535454221513753</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.05064434560818432</v>
+        <v>0.04351795522603605</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.03605048602120684</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003567919685784499</v>
+        <v>0.01943489707753068</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.0198675070586656</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.005738391767687381</v>
+        <v>0.04032481743670978</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.0337791203645583</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.03302872668403455</v>
+        <v>0.01881023979325147</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -1490,79 +1490,79 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.0014002306108985</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.02646544543909859</v>
+        <v>-0.004887850227421824</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.0157778721620328</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.00778653567152176</v>
+        <v>0.008101020542556516</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.05940356292797199</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.01222455926635343</v>
+        <v>-0.00516732990964021</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.008857138002429203</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.01544597795188935</v>
+        <v>0.0141670900926394</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.06633599436900316</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02343981439823098</v>
+        <v>-0.04489119929027677</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.02588855511003614</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
